--- a/Analysis/stata output model DG.xlsx
+++ b/Analysis/stata output model DG.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stefano/Documents/GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stefano/Documents/GitHub/Social_norm_meta_analysis/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AE592FB-5A1B-654C-A2AB-291920856098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332E731C-F48C-0B4A-9A99-6B3969B8DF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4900" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{DB2BA5E1-2C1B-2C4F-BC59-818118D9C87F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,15 +93,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,9 +130,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -441,19 +449,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D134EB9E-C143-9B46-AE71-D7A2E23747BC}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="9" width="17.5" customWidth="1"/>
+    <col min="12" max="19" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,229 +492,336 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1">
-        <v>1.414957</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.163338</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.34470000000000001</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-4.5600000000000002E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.80194759999999998</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1.45017</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.1588</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.40810000000000002</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="B2" s="3">
+        <v>1.4149571882974601</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.16333788940885</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.34465593767385599</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-4.5642590982839001E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.98486227726068798</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1.74511676198235</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.161583730648235</v>
+      </c>
+      <c r="I2" s="3">
+        <v>5.0526014803578096</v>
+      </c>
+      <c r="J2" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>1.0911999999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3.1985000000000001</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.45991579999999999</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-0.27539999999999998</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.53220000000000001</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.25209999999999999</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="B3" s="3">
+        <v>1.0912480517699299</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3.1984797133087399</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.45991577435655101</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-0.27542080132688102</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.181642893275935</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.57928842483362897</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3.1195808662354101E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.3076780698636199</v>
+      </c>
+      <c r="J3" s="3">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.61619999999999997</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.5078</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.4143</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.1593</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.18970000000000001</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.68310000000000004</v>
-      </c>
-      <c r="H4" s="1">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.15010000000000001</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="B4" s="3">
+        <v>0.61616214378092504</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.5078218560196901</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.41432144919811298</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.15933341549263899</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.190338318447174</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.66901156300582798</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5.0674157400917699E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.99456994496016704</v>
+      </c>
+      <c r="J4" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.95230000000000004</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4.3493000000000004</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.50339999999999996</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-13.835000000000001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.15359999999999999</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.76170000000000004</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="B5" s="3">
+        <v>0.95234513980174995</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.3492496701342898</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.50340941450881305</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-13.835021932268701</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.14695537614476101</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.73106971718441005</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3.02211122001219E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2.7428605030903599</v>
+      </c>
+      <c r="J5" s="3">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1">
-        <v>1.867</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4.9146000000000001</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.3029</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-7.2130000000000001</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.52190000000000003</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.6601999999999999</v>
-      </c>
-      <c r="H6" s="1">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.25840000000000002</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="B6" s="3">
+        <v>1.86700393687836</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.9146139241693803</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.30289502597740903</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-7.2129982758253499</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.54859349519741896</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.76857741881343</v>
+      </c>
+      <c r="H6" s="3">
+        <v>7.5463406516217593E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.84911357987322</v>
+      </c>
+      <c r="J6" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.9780000000000002</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.51119999999999999</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.2167</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.26329999999999998</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.2008000000000001</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.1142</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="B7" s="3">
+        <v>0.76401509248178301</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.9579769405679701</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.51115744510585304</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.216742348207628</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.32793492353027598</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.4567020163106501</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5.96614574713051E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.50893286405750304</v>
+      </c>
+      <c r="J7" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1">
-        <v>1.1712</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.5356999999999998</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.50190000000000001</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-0.32719999999999999</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.31929999999999997</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.92749999999999999</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3.32E-2</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.317</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="B8" s="3">
+        <v>1.1712097532772801</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3.5356991729763099</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.50190282945137199</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-0.327164095799513</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.31230159421912201</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.90767130003624097</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3.4032570786731602E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2.57667551420186</v>
+      </c>
+      <c r="J8" s="3">
         <v>127</v>
       </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analysis/stata output model DG.xlsx
+++ b/Analysis/stata output model DG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Stefano/Documents/GitHub/Social_norm_meta_analysis/Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguido\Documents\GitHub\Social_norm_meta_analysis\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332E731C-F48C-0B4A-9A99-6B3969B8DF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07087377-4FAF-4FEE-87C2-06EA4BC9FC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4900" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{DB2BA5E1-2C1B-2C4F-BC59-818118D9C87F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB2BA5E1-2C1B-2C4F-BC59-818118D9C87F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,35 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>treatment_id</t>
   </si>
   <si>
-    <t>s_delta</t>
-  </si>
-  <si>
-    <t>s_gamma</t>
-  </si>
-  <si>
-    <t>cr_rho</t>
-  </si>
-  <si>
-    <t>cr_sigma</t>
-  </si>
-  <si>
-    <t>s_delta_SE</t>
-  </si>
-  <si>
-    <t>s_gamma_SE</t>
-  </si>
-  <si>
-    <t>cr_rho_SE</t>
-  </si>
-  <si>
-    <t>cr_sigma_SE</t>
-  </si>
-  <si>
     <t>2007Lis165_1a</t>
   </si>
   <si>
@@ -86,6 +62,66 @@
   </si>
   <si>
     <t>n_obs</t>
+  </si>
+  <si>
+    <t>S_delta</t>
+  </si>
+  <si>
+    <t>SN_gamma</t>
+  </si>
+  <si>
+    <t>SN_delta</t>
+  </si>
+  <si>
+    <t>BA_sigma</t>
+  </si>
+  <si>
+    <t>CP_rho</t>
+  </si>
+  <si>
+    <t>DA_rho</t>
+  </si>
+  <si>
+    <t>DA_sigma</t>
+  </si>
+  <si>
+    <t>FU_rho</t>
+  </si>
+  <si>
+    <t>FU_sigma</t>
+  </si>
+  <si>
+    <t>FU_gamma</t>
+  </si>
+  <si>
+    <t>se_S_delta</t>
+  </si>
+  <si>
+    <t>se_SN_delta</t>
+  </si>
+  <si>
+    <t>se_SN_gamma</t>
+  </si>
+  <si>
+    <t>se_BA_sigma</t>
+  </si>
+  <si>
+    <t>se_CP_rho</t>
+  </si>
+  <si>
+    <t>se_DA_rho</t>
+  </si>
+  <si>
+    <t>se_DA_sigma</t>
+  </si>
+  <si>
+    <t>se_FU_rho</t>
+  </si>
+  <si>
+    <t>se_FU_sigma</t>
+  </si>
+  <si>
+    <t>se_FU_gamma</t>
   </si>
 </sst>
 </file>
@@ -93,21 +129,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,14 +160,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -153,7 +182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -449,378 +478,583 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D134EB9E-C143-9B46-AE71-D7A2E23747BC}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="9" width="17.5" customWidth="1"/>
     <col min="12" max="19" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>0.52957823972841001</v>
+      </c>
+      <c r="C2">
+        <v>1.4149571882974601</v>
+      </c>
+      <c r="D2">
+        <v>2.16333788940885</v>
+      </c>
+      <c r="E2">
+        <v>0.32591430298386198</v>
+      </c>
+      <c r="F2">
+        <v>0.33558372606459402</v>
+      </c>
+      <c r="G2">
+        <v>0.344655938321689</v>
+      </c>
+      <c r="H2">
+        <v>-4.5642598484152599E-2</v>
+      </c>
+      <c r="I2">
+        <v>-1.073892822526</v>
+      </c>
+      <c r="J2">
+        <v>0.37040003666924798</v>
+      </c>
+      <c r="K2">
+        <v>4.8542764643581302</v>
+      </c>
+      <c r="L2" s="2">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>0.15931815797654</v>
+      </c>
+      <c r="N2">
+        <v>0.80194760307254698</v>
+      </c>
+      <c r="O2">
+        <v>1.4501699985040499</v>
+      </c>
+      <c r="P2">
+        <v>0.269195000538063</v>
+      </c>
+      <c r="Q2">
+        <v>0.12935734983911501</v>
+      </c>
+      <c r="R2">
+        <v>0.15876697349263799</v>
+      </c>
+      <c r="S2">
+        <v>0.40813536807953898</v>
+      </c>
+      <c r="T2">
+        <v>0.58031114366195002</v>
+      </c>
+      <c r="U2">
+        <v>0.44433651430223098</v>
+      </c>
+      <c r="V2">
+        <v>1.8924893245330801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3">
+        <v>0.30479867484162199</v>
+      </c>
+      <c r="C3">
+        <v>1.0912480517699299</v>
+      </c>
+      <c r="D3">
+        <v>3.1984797133087399</v>
+      </c>
+      <c r="E3">
+        <v>0.45132878306142399</v>
+      </c>
+      <c r="F3">
+        <v>0.44379058061625398</v>
+      </c>
+      <c r="G3">
+        <v>0.459915774408447</v>
+      </c>
+      <c r="H3">
+        <v>-0.27542080694245502</v>
+      </c>
+      <c r="I3">
+        <v>-4.1206264397850002E-2</v>
+      </c>
+      <c r="J3">
+        <v>-5.5683083555301702E-2</v>
+      </c>
+      <c r="K3">
+        <v>3.1733852281914499</v>
+      </c>
+      <c r="L3" s="2">
+        <v>135</v>
+      </c>
+      <c r="M3">
+        <v>2.9896506781822301E-2</v>
+      </c>
+      <c r="N3">
+        <v>0.17000486800914</v>
+      </c>
+      <c r="O3">
+        <v>0.53216974532488004</v>
+      </c>
+      <c r="P3">
+        <v>0.101631435978828</v>
+      </c>
+      <c r="Q3">
+        <v>2.7851837800083601E-2</v>
+      </c>
+      <c r="R3">
+        <v>3.11048693699063E-2</v>
+      </c>
+      <c r="S3">
+        <v>0.25210022998124398</v>
+      </c>
+      <c r="T3">
+        <v>0.108007752895224</v>
+      </c>
+      <c r="U3">
+        <v>0.25437507861553499</v>
+      </c>
+      <c r="V3">
+        <v>0.64019618280792001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4">
+        <v>0.29608117658191402</v>
+      </c>
+      <c r="C4">
+        <v>0.61616214378092504</v>
+      </c>
+      <c r="D4">
+        <v>1.5078218560196901</v>
+      </c>
+      <c r="E4">
+        <v>0.63522418020805704</v>
+      </c>
+      <c r="F4">
+        <v>0.43194838157193</v>
+      </c>
+      <c r="G4">
+        <v>0.41432144737823301</v>
+      </c>
+      <c r="H4">
+        <v>0.159333461103809</v>
+      </c>
+      <c r="I4">
+        <v>0.13403972342894999</v>
+      </c>
+      <c r="J4">
+        <v>0.23933820752325399</v>
+      </c>
+      <c r="K4">
+        <v>1.8425755920225899</v>
+      </c>
+      <c r="L4" s="2">
+        <v>52</v>
+      </c>
+      <c r="M4">
+        <v>5.19764598385642E-2</v>
+      </c>
+      <c r="N4">
+        <v>0.18974034511305901</v>
+      </c>
+      <c r="O4">
+        <v>0.68308979657542501</v>
+      </c>
+      <c r="P4">
+        <v>7.8682549035117205E-2</v>
+      </c>
+      <c r="Q4">
+        <v>4.4327036772378502E-2</v>
+      </c>
+      <c r="R4">
+        <v>4.9005190084809198E-2</v>
+      </c>
+      <c r="S4">
+        <v>0.150072346555358</v>
+      </c>
+      <c r="T4">
+        <v>0.165925373102561</v>
+      </c>
+      <c r="U4">
+        <v>0.161788200718013</v>
+      </c>
+      <c r="V4">
+        <v>1.00960923971812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5">
+        <v>0.19220082021486901</v>
+      </c>
+      <c r="C5">
+        <v>0.95234513980174995</v>
+      </c>
+      <c r="D5">
+        <v>4.3492496701342898</v>
+      </c>
+      <c r="F5">
+        <v>0.48626129514106398</v>
+      </c>
+      <c r="G5">
+        <v>0.50340941450881804</v>
+      </c>
+      <c r="H5">
+        <v>-13.8350226864007</v>
+      </c>
+      <c r="I5">
+        <v>0.14275809667154701</v>
+      </c>
+      <c r="J5">
+        <v>-7.3120898248095001</v>
+      </c>
+      <c r="K5">
+        <v>3.3836026768034002</v>
+      </c>
+      <c r="L5" s="2">
+        <v>66</v>
+      </c>
+      <c r="M5">
+        <v>2.5541958020406302E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.15358222347151301</v>
+      </c>
+      <c r="O5">
+        <v>0.76173263686037596</v>
+      </c>
+      <c r="Q5">
+        <v>2.6806847810766001E-2</v>
+      </c>
+      <c r="R5">
+        <v>2.8902714357643501E-2</v>
+      </c>
+      <c r="S5">
+        <v>0.13003831917419101</v>
+      </c>
+      <c r="T5">
+        <v>0.106716075247948</v>
+      </c>
+      <c r="U5">
+        <v>0.101113594445503</v>
+      </c>
+      <c r="V5">
+        <v>0.95863439169674602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B6">
+        <v>0.51465049167584798</v>
+      </c>
+      <c r="C6">
+        <v>1.86700393687836</v>
+      </c>
+      <c r="D6">
+        <v>4.9146139241693803</v>
+      </c>
+      <c r="E6">
+        <v>-16.4906664207086</v>
+      </c>
+      <c r="F6">
+        <v>0.28245499732278101</v>
+      </c>
+      <c r="G6">
+        <v>0.30289502597740903</v>
+      </c>
+      <c r="H6">
+        <v>-7.2129982760590803</v>
+      </c>
+      <c r="I6">
+        <v>-0.35825552312285203</v>
+      </c>
+      <c r="J6">
+        <v>-6.8189369370082096</v>
+      </c>
+      <c r="K6">
+        <v>4.4755247856862503</v>
+      </c>
+      <c r="L6" s="2">
+        <v>38</v>
+      </c>
+      <c r="M6">
+        <v>9.4211837798715198E-2</v>
+      </c>
+      <c r="N6">
+        <v>0.52188461494336102</v>
+      </c>
+      <c r="O6">
+        <v>1.66021033281853</v>
+      </c>
+      <c r="P6">
+        <v>8.2199493652678299E-2</v>
+      </c>
+      <c r="Q6">
+        <v>6.4666740708390902E-2</v>
+      </c>
+      <c r="R6">
+        <v>6.8950953308161603E-2</v>
+      </c>
+      <c r="S6">
+        <v>0.25836514417235801</v>
+      </c>
+      <c r="T6">
+        <v>0.29997813470516399</v>
+      </c>
+      <c r="U6">
+        <v>0.192282960343302</v>
+      </c>
+      <c r="V6">
+        <v>1.8620344135734499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B7">
+        <v>0.17416844720383801</v>
+      </c>
+      <c r="C7">
+        <v>0.76401509248178301</v>
+      </c>
+      <c r="D7">
+        <v>3.9579769405679701</v>
+      </c>
+      <c r="E7">
+        <v>0.72827329727425505</v>
+      </c>
+      <c r="F7">
+        <v>0.54504766374052604</v>
+      </c>
+      <c r="G7">
+        <v>0.511157445520251</v>
+      </c>
+      <c r="H7">
+        <v>0.21674234134555201</v>
+      </c>
+      <c r="I7">
+        <v>-0.64876816500332002</v>
+      </c>
+      <c r="J7">
+        <v>0.54446682149019598</v>
+      </c>
+      <c r="K7">
+        <v>10.310418319443301</v>
+      </c>
+      <c r="L7" s="2">
+        <v>56</v>
+      </c>
+      <c r="M7">
+        <v>4.5510307454722898E-2</v>
+      </c>
+      <c r="N7">
+        <v>0.263282403487621</v>
+      </c>
+      <c r="O7">
+        <v>1.20083940854196</v>
+      </c>
+      <c r="P7">
+        <v>5.6896431468903198E-2</v>
+      </c>
+      <c r="Q7">
+        <v>5.0571441982113503E-2</v>
+      </c>
+      <c r="R7">
+        <v>5.6889538726575803E-2</v>
+      </c>
+      <c r="S7">
+        <v>0.11424270706732</v>
+      </c>
+      <c r="T7">
+        <v>0.28951918898548901</v>
+      </c>
+      <c r="U7">
+        <v>0.14927978234171299</v>
+      </c>
+      <c r="V7">
+        <v>2.5022675548422399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1.4149571882974601</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2.16333788940885</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.34465593767385599</v>
-      </c>
-      <c r="E2" s="3">
-        <v>-4.5642590982839001E-2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.98486227726068798</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1.74511676198235</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.161583730648235</v>
-      </c>
-      <c r="I2" s="3">
-        <v>5.0526014803578096</v>
-      </c>
-      <c r="J2" s="3">
-        <v>24</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1.0912480517699299</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3.1984797133087399</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.45991577435655101</v>
-      </c>
-      <c r="E3" s="3">
-        <v>-0.27542080132688102</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.181642893275935</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.57928842483362897</v>
-      </c>
-      <c r="H3" s="3">
-        <v>3.1195808662354101E-2</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1.3076780698636199</v>
-      </c>
-      <c r="J3" s="3">
-        <v>135</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.61616214378092504</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.5078218560196901</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.41432144919811298</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.15933341549263899</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.190338318447174</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.66901156300582798</v>
-      </c>
-      <c r="H4" s="3">
-        <v>5.0674157400917699E-2</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.99456994496016704</v>
-      </c>
-      <c r="J4" s="3">
-        <v>52</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.95234513980174995</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4.3492496701342898</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.50340941450881305</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-13.835021932268701</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.14695537614476101</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.73106971718441005</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3.02211122001219E-2</v>
-      </c>
-      <c r="I5" s="3">
-        <v>2.7428605030903599</v>
-      </c>
-      <c r="J5" s="3">
-        <v>67</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1.86700393687836</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4.9146139241693803</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.30289502597740903</v>
-      </c>
-      <c r="E6" s="3">
-        <v>-7.2129982758253499</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.54859349519741896</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1.76857741881343</v>
-      </c>
-      <c r="H6" s="3">
-        <v>7.5463406516217593E-2</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.84911357987322</v>
-      </c>
-      <c r="J6" s="3">
-        <v>38</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.76401509248178301</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3.9579769405679701</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.51115744510585304</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.216742348207628</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.32793492353027598</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.4567020163106501</v>
-      </c>
-      <c r="H7" s="3">
-        <v>5.96614574713051E-2</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.50893286405750304</v>
-      </c>
-      <c r="J7" s="3">
-        <v>56</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="B8">
+        <v>0.26671571374328101</v>
+      </c>
+      <c r="C8">
         <v>1.1712097532772801</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8">
         <v>3.5356991729763099</v>
       </c>
-      <c r="D8" s="3">
-        <v>0.50190282945137199</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-0.327164095799513</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.31230159421912201</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.90767130003624097</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3.4032570786731602E-2</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2.57667551420186</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="E8">
+        <v>0.46010559924885402</v>
+      </c>
+      <c r="F8">
+        <v>0.48212243488505402</v>
+      </c>
+      <c r="G8">
+        <v>0.50190282980617695</v>
+      </c>
+      <c r="H8">
+        <v>-0.32716413778248699</v>
+      </c>
+      <c r="I8">
+        <v>-0.32093122172036398</v>
+      </c>
+      <c r="J8">
+        <v>0.35842346048838303</v>
+      </c>
+      <c r="K8">
+        <v>4.8720970346880703</v>
+      </c>
+      <c r="L8" s="2">
         <v>127</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>2.8515905948580202E-2</v>
+      </c>
+      <c r="N8">
+        <v>0.31926399584539</v>
+      </c>
+      <c r="O8">
+        <v>0.92750889745141296</v>
+      </c>
+      <c r="P8">
+        <v>0.121503051856118</v>
+      </c>
+      <c r="Q8">
+        <v>2.9066172615123901E-2</v>
+      </c>
+      <c r="R8">
+        <v>3.3231588919943399E-2</v>
+      </c>
+      <c r="S8">
+        <v>0.31702529952732</v>
+      </c>
+      <c r="T8">
+        <v>0.16526607069107799</v>
+      </c>
+      <c r="U8">
+        <v>0.29896040290395698</v>
+      </c>
+      <c r="V8">
+        <v>0.93601715808258801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F22" s="1"/>
     </row>
   </sheetData>
